--- a/data/trans_dic/P22_R4-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22_R4-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04109815343934529</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06332495711649049</v>
+        <v>0.06332495711649047</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05250606622842885</v>
+        <v>0.05103653023255249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04890634170518984</v>
+        <v>0.04964791144093553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03158425879871242</v>
+        <v>0.03013878229904017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04964543986506299</v>
+        <v>0.04759180342000931</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05033499951782511</v>
+        <v>0.05242366170548662</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02551214393571791</v>
+        <v>0.02566461070048284</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02231048474347709</v>
+        <v>0.02397938050349392</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04861499975303489</v>
+        <v>0.04707061223710788</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05699874918776932</v>
+        <v>0.05710464461250613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04274660609705942</v>
+        <v>0.04286997177769331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03044703456065758</v>
+        <v>0.0316895329904992</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05141691523090013</v>
+        <v>0.05197480559072359</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09207503079133239</v>
+        <v>0.08969942671668699</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09136376701108866</v>
+        <v>0.09062203396820005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06620929200334601</v>
+        <v>0.0665564144475651</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08823707326175539</v>
+        <v>0.08496147716582524</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08846800505009017</v>
+        <v>0.09053592292802104</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05560040911789373</v>
+        <v>0.05489489827776844</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05285667613975911</v>
+        <v>0.05354109606048145</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07789402385336673</v>
+        <v>0.07683666746437223</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08509577756012458</v>
+        <v>0.08530443254609839</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06922553521503938</v>
+        <v>0.06824619617667851</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05328706299417751</v>
+        <v>0.05554758758789523</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07541379477425796</v>
+        <v>0.07596518282722795</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07108121652231432</v>
+        <v>0.07219528586692486</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06866323570412987</v>
+        <v>0.06893597077195826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07058014529347094</v>
+        <v>0.07218481646375656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1016923946914581</v>
+        <v>0.1018053998036301</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06388239761206904</v>
+        <v>0.06479186219846995</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04552811497923175</v>
+        <v>0.04624163468598082</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05354858884658856</v>
+        <v>0.05375473741220392</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09595829543751784</v>
+        <v>0.09604705741614086</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07237807090966428</v>
+        <v>0.07348850606782648</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06240365377180824</v>
+        <v>0.06146324482707665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06722880241115621</v>
+        <v>0.06779212324102968</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1048894985594019</v>
+        <v>0.104846401006168</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1082626936334097</v>
+        <v>0.1110485827685571</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1067737198525566</v>
+        <v>0.1069864259763376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1089344084760573</v>
+        <v>0.110303689117976</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1528102406796993</v>
+        <v>0.1546684662529083</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1003162258671109</v>
+        <v>0.1007790702394148</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07575018426170059</v>
+        <v>0.07539900776026005</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08704286167987289</v>
+        <v>0.08693995760190672</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1303992644075891</v>
+        <v>0.1287195181046129</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09853812790392495</v>
+        <v>0.1010378098109755</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08700711627153919</v>
+        <v>0.08798619251922349</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09251438413121152</v>
+        <v>0.09344266907857127</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1349822419809924</v>
+        <v>0.1363337991691847</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09946112765801213</v>
+        <v>0.09937416181982434</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08386961431330867</v>
+        <v>0.08531957899950342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03462656785999874</v>
+        <v>0.03430155857317527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1166678027346455</v>
+        <v>0.1183229851828612</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08875128722121846</v>
+        <v>0.08698472049357027</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07284848624044538</v>
+        <v>0.07158028878728337</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04985844141958137</v>
+        <v>0.04919725028682418</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1271001626347216</v>
+        <v>0.1278543379036662</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1007223944707724</v>
+        <v>0.1000713464861038</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08489321555479848</v>
+        <v>0.08408318425641409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04615408728639191</v>
+        <v>0.04596383143560703</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1308351402749133</v>
+        <v>0.1295633836824335</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1526177269876582</v>
+        <v>0.1510218212604039</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1325210622555531</v>
+        <v>0.1351385055954959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06585827086288285</v>
+        <v>0.06604819195175965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.172218596153487</v>
+        <v>0.1734411617425357</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1352132709854046</v>
+        <v>0.1346981212944557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.12168804170564</v>
+        <v>0.1216609571240033</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08592332972194201</v>
+        <v>0.08507458279314348</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1729781670153983</v>
+        <v>0.175243487560601</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1392014815350202</v>
+        <v>0.1353647998372187</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1192715296307691</v>
+        <v>0.1183420331503411</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07020106202977236</v>
+        <v>0.07060072469166029</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1668490024765252</v>
+        <v>0.1658363456698904</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1137706590722045</v>
+        <v>0.1159675085801531</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08429874698610858</v>
+        <v>0.08481042683512105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1043584437821923</v>
+        <v>0.1084747976901763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1600758364771594</v>
+        <v>0.161059363030668</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09681982414036176</v>
+        <v>0.09633799633413394</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08454241639200109</v>
+        <v>0.08598569258690911</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1012179720257786</v>
+        <v>0.1007444651099014</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1666837814001487</v>
+        <v>0.167679908123063</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1124086435359557</v>
+        <v>0.1110316670181379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08994581502161417</v>
+        <v>0.09110632901523012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1096278634902761</v>
+        <v>0.1090257144143267</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1696382830135852</v>
+        <v>0.1700685257498485</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1591092195752135</v>
+        <v>0.1590935581635897</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1271619914142473</v>
+        <v>0.1265212445033551</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1479852635993119</v>
+        <v>0.1504655133639292</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2118244812195413</v>
+        <v>0.2132987991662837</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1383114588683184</v>
+        <v>0.1372879778813351</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1261183516870328</v>
+        <v>0.1245347979826159</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1427485902247145</v>
+        <v>0.1446631722080105</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2089425416201067</v>
+        <v>0.2087956450660281</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1408237078887418</v>
+        <v>0.1408966205640875</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1188662671806971</v>
+        <v>0.1201732606928212</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1391325967527425</v>
+        <v>0.1400039579316508</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2015732549850319</v>
+        <v>0.2020664068083506</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0774754943763185</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1322101441228371</v>
+        <v>0.1322101441228372</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1005017672187822</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08226267404318849</v>
+        <v>0.08275056278488034</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07255513091758289</v>
+        <v>0.07239278429040003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1224163031950618</v>
+        <v>0.121803620560216</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06737197292218709</v>
+        <v>0.06676762116171463</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06850104746771289</v>
+        <v>0.06857280457093129</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1235373991004885</v>
+        <v>0.122831228840384</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07721331754559801</v>
+        <v>0.07804620338960376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07300206866104694</v>
+        <v>0.07324910829615139</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1258076378444265</v>
+        <v>0.1260455645709052</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1032721611484851</v>
+        <v>0.103549767822378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09215201492423787</v>
+        <v>0.09253159885864069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1473112729309723</v>
+        <v>0.1489194647751225</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0859927318395657</v>
+        <v>0.08587802526354722</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08702901771464081</v>
+        <v>0.08714270950486862</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1426623661650209</v>
+        <v>0.1425461444355737</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09142253765261725</v>
+        <v>0.09211685255418939</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08698708071809727</v>
+        <v>0.08666443775049996</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1419935557891918</v>
+        <v>0.1425082984409274</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>36327</v>
+        <v>35310</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34404</v>
+        <v>34926</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21276</v>
+        <v>20302</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>34291</v>
+        <v>32872</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>34606</v>
+        <v>36041</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17783</v>
+        <v>17890</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15011</v>
+        <v>16134</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35692</v>
+        <v>34558</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>78622</v>
+        <v>78768</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>59867</v>
+        <v>60040</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>40996</v>
+        <v>42669</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>73263</v>
+        <v>74058</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63703</v>
+        <v>62059</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64272</v>
+        <v>63750</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44601</v>
+        <v>44835</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>60946</v>
+        <v>58684</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60822</v>
+        <v>62244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38756</v>
+        <v>38264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35564</v>
+        <v>36025</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57188</v>
+        <v>56412</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>117378</v>
+        <v>117666</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>96952</v>
+        <v>95580</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>71749</v>
+        <v>74793</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>107456</v>
+        <v>108242</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68295</v>
+        <v>69365</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>69828</v>
+        <v>70106</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>72097</v>
+        <v>73737</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>106667</v>
+        <v>106785</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>61863</v>
+        <v>62744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>46993</v>
+        <v>47730</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>55744</v>
+        <v>55959</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>102817</v>
+        <v>102912</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>139631</v>
+        <v>141773</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>127874</v>
+        <v>125947</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>138660</v>
+        <v>139821</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>222407</v>
+        <v>222315</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>104018</v>
+        <v>106695</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>108585</v>
+        <v>108802</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111276</v>
+        <v>112675</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>160285</v>
+        <v>162234</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>97146</v>
+        <v>97594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>78188</v>
+        <v>77826</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>90612</v>
+        <v>90505</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>139719</v>
+        <v>137920</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>190099</v>
+        <v>194921</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>178291</v>
+        <v>180297</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>190811</v>
+        <v>192726</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>286215</v>
+        <v>289081</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>67393</v>
+        <v>67334</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>63542</v>
+        <v>64640</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26237</v>
+        <v>25990</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>93693</v>
+        <v>95022</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>60692</v>
+        <v>59484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>56616</v>
+        <v>55630</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38945</v>
+        <v>38429</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>103238</v>
+        <v>103851</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>137126</v>
+        <v>136239</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>130294</v>
+        <v>129051</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>71023</v>
+        <v>70730</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>211342</v>
+        <v>209288</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>103411</v>
+        <v>102330</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>100401</v>
+        <v>102384</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49901</v>
+        <v>50045</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>138304</v>
+        <v>139286</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>92464</v>
+        <v>92112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>94573</v>
+        <v>94552</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>67116</v>
+        <v>66453</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>140503</v>
+        <v>142343</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>189512</v>
+        <v>184289</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>183058</v>
+        <v>181631</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>108027</v>
+        <v>108642</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>269517</v>
+        <v>267881</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>106933</v>
+        <v>108998</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79893</v>
+        <v>80378</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>97742</v>
+        <v>101598</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>158485</v>
+        <v>159459</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>100444</v>
+        <v>99944</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>88930</v>
+        <v>90448</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>105649</v>
+        <v>105155</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>186228</v>
+        <v>187341</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>222269</v>
+        <v>219546</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>179859</v>
+        <v>182180</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>217105</v>
+        <v>215913</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>357481</v>
+        <v>358388</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>149547</v>
+        <v>149532</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>120516</v>
+        <v>119909</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>138603</v>
+        <v>140926</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>209719</v>
+        <v>211179</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>143489</v>
+        <v>142427</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>132664</v>
+        <v>130998</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>148998</v>
+        <v>150996</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>233442</v>
+        <v>233278</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>278455</v>
+        <v>278599</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>237690</v>
+        <v>240303</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>275536</v>
+        <v>277261</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>424778</v>
+        <v>425818</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>281815</v>
+        <v>283487</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>245921</v>
+        <v>245371</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>432468</v>
+        <v>430303</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>239730</v>
+        <v>237580</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>242407</v>
+        <v>242661</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>461433</v>
+        <v>458795</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>539266</v>
+        <v>545083</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>505771</v>
+        <v>507483</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>914361</v>
+        <v>916090</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>353790</v>
+        <v>354741</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>312343</v>
+        <v>313630</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>520416</v>
+        <v>526097</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>305989</v>
+        <v>305581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>307973</v>
+        <v>308375</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>532868</v>
+        <v>532434</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>638505</v>
+        <v>643354</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>602662</v>
+        <v>600426</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1031999</v>
+        <v>1035740</v>
       </c>
     </row>
     <row r="24">
